--- a/typecheck/benchmark/nonincremental_16_BU3/Tree{Add,[1..n]}.BottomUpEagerSubst.Test-0.xlsx
+++ b/typecheck/benchmark/nonincremental_16_BU3/Tree{Add,[1..n]}.BottomUpEagerSubst.Test-0.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Tree{Add,(1..n)}.BottomUpEagerS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -85,10 +85,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -111,13 +137,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -759,8 +796,15 @@
         <v>17</v>
       </c>
     </row>
+    <row r="11" spans="1:10">
+      <c r="E11" s="1">
+        <f>SUM(E2:E9)/COUNTA(E2:E9)</f>
+        <v>533.11945910827649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
